--- a/Documentação/TI/Backlog.xlsx
+++ b/Documentação/TI/Backlog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/ana_barrocal_sptech_school/Documents/OneDrive - SPTech School/Trabalhos SPTECH/PI/Sprint1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/ana_barrocal_sptech_school/Documents/OneDrive - SPTech School/Trabalhos SPTECH/PI/Sprint1 --SGC/Documentação/TI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D344F4-070B-4970-A041-23D4257FACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{46D344F4-070B-4970-A041-23D4257FACDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A3B54B8-CF6B-4697-A1A9-BB84A75CB1BA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3295AF2D-E15C-4188-B3F7-9A3C1BA00D53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -57,18 +57,9 @@
     <t xml:space="preserve">PESQUISA E APROFUNDAMENTO NO TEMA DO PROJETO </t>
   </si>
   <si>
-    <t>Documentação do projeto</t>
-  </si>
-  <si>
     <t xml:space="preserve">CRIAÇÃO DE DOCUMENTAÇÃO PARA ORGANIZAÇÃO E DEFINIÇÃO DE TÓPICOS DO PROJETO </t>
   </si>
   <si>
-    <t>Visão de Negócio (Diagrama)</t>
-  </si>
-  <si>
-    <t>CRIAÇÃO DE DIAGRAMA DE VISÃO DE NEGÓCIO, COM OBJETIVO DE COMPREENDER O FUNCIONAMENTO DO PROJETO DE FORMA VISUAL</t>
-  </si>
-  <si>
     <t>Execução de Script de Inserção de Registros</t>
   </si>
   <si>
@@ -78,42 +69,15 @@
     <t>Protótipo do Site Institucional</t>
   </si>
   <si>
-    <t>CRIAÇÃO DE PROTÓTIPO DO SITE INSTITUCIONAL PARA APRESENTAR AO CLIENTE</t>
-  </si>
-  <si>
-    <t>Tela de simulador financeiro</t>
-  </si>
-  <si>
-    <t>SIMULADOR FINANCEIRO PARA JUSTIFICAR CONTRATAÇÃO DO PROJETO</t>
-  </si>
-  <si>
-    <t>Ferramenta de Gestão de Projeto configurada</t>
-  </si>
-  <si>
-    <t>CONFIGURAÇÃO DE TODOS OS ENTREGÁVEIS NO TRELLO</t>
-  </si>
-  <si>
     <t>Requisitos populados na ferramenta</t>
   </si>
   <si>
-    <t>Tabelas criadas no MySQL</t>
-  </si>
-  <si>
     <t>CRIAR E DESENVOLVER O BANCO DE DADOS E TABELAS PARA RECEPÇÃO DE DADOS DO SISTEMA E DO SENSOR</t>
   </si>
   <si>
-    <t>Ligar Arduino e executar Código com 1 sensor</t>
-  </si>
-  <si>
-    <t>DESENVOLVIMENTO DO CÓDIGO PARA OS SENSORES CORRETA CAPTAÇÃO DE DADOS</t>
-  </si>
-  <si>
     <t>Setup de Client de Virtualização</t>
   </si>
   <si>
-    <t>INSTALAÇÃO E CRIAÇÃO DO VIRTUAL BOX PARA HOSPEDAGEM DE MÁQUINA VIRTUAL</t>
-  </si>
-  <si>
     <t>Linux instalado na VM Local</t>
   </si>
   <si>
@@ -129,22 +93,64 @@
     <t>SP1</t>
   </si>
   <si>
-    <t>Contexto do Negócio e Justificativa do projeto</t>
+    <t>EXECUTAR OS SCRIPTS PARA CONSULTAR TABELAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justificativa do projeto</t>
+  </si>
+  <si>
+    <t>Contexto do Negócio</t>
+  </si>
+  <si>
+    <t>ARGUMENTO USADO NA SOLUÇÃO DO NEGÓCIO COM UM TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama Visão de Negócio </t>
+  </si>
+  <si>
+    <t>CRIAR DE PROTÓTIPO DO SITE INSTITUCIONAL PARA APRESENTAR AO CLIENTE</t>
+  </si>
+  <si>
+    <t>CRIAR DE DIAGRAMA DE VISÃO DE NEGÓCIO, COM OBJETIVO DE COMPREENDER O FUNCIONAMENTO DO PROJETO DE FORMA VISUAL</t>
+  </si>
+  <si>
+    <t>DESENVOLVER SIMULADOR FINANCEIRO PARA JUSTIFICAR CONTRATAÇÃO DO PROJETO</t>
+  </si>
+  <si>
+    <t>Tela de simulador financeiro (individual)</t>
+  </si>
+  <si>
+    <t>Ferramenta de Gestão de Projeto Funcionando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRELLO COM BACKLOG DE REQUISITOS </t>
+  </si>
+  <si>
+    <t>BACKLOG DE REQUISITOS ATUALIZADO</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no MySQL (Individual)</t>
+  </si>
+  <si>
+    <t>INSERIR REGISTROS RELACIONANDOS AO NEGÓCIO</t>
+  </si>
+  <si>
+    <t>INSTALAÇÃO DO VIRTUAL BOX PARA HOSPEDAGEM DE MÁQUINA VIRTUAL</t>
+  </si>
+  <si>
+    <t>Ligar Arduino</t>
+  </si>
+  <si>
+    <t>DESENVOLVIMENTO DO CÓDIGO PARA OS SENSORES TEREM UMA CAPTAÇÃO DE DADOS CORRETA</t>
+  </si>
+  <si>
+    <t>CONECTAR O ARDUINO AO SENSOR E PLUGAR NA MÁQUINA FÍSICA PARA INICIAR A CAPTURA DE DADOS</t>
   </si>
   <si>
     <t>Documentação Inicial do projeto</t>
   </si>
   <si>
-    <t>EXECUTAR OS SCRIPTS PARA CONSULTAR TABELAS</t>
-  </si>
-  <si>
-    <t>CRIAR TABELAS NO MYSQL</t>
-  </si>
-  <si>
-    <t>POPULAR FERRAMENTA DE GESTÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRELLO CONFIGURADO </t>
+    <t xml:space="preserve"> Rodar Código Arduino</t>
   </si>
 </sst>
 </file>
@@ -167,13 +173,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Bahnschrift Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Bahnschrift Light"/>
@@ -181,6 +180,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Bahnschrift Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
@@ -200,13 +206,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.499984740745262"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,25 +244,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443CFF5A-61F0-469A-B9DA-EE6D861D8DA3}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -586,241 +595,255 @@
     <col min="3" max="3" width="54.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>30</v>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D17" xr:uid="{2B65525C-E6C3-4C91-A177-1686AC46C05F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D18" xr:uid="{2B65525C-E6C3-4C91-A177-1686AC46C05F}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
